--- a/biology/Médecine/Röntgen/Röntgen.xlsx
+++ b/biology/Médecine/Röntgen/Röntgen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%B6ntgen</t>
+          <t>Röntgen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le röntgen, ou roentgen (symbole R) est une ancienne unité CGS permettant de quantifier l'exposition aux rayonnements ionisants X ou gamma. Il est défini comme la quantité de charges électriques libérées par le passage d'une radiation ionisante dans un volume d'air sec, à pression et température normales. Dans le Système International, il correspond à des coulombs par kilogramme. Il a été nommé en l'honneur du physicien allemand Wilhelm Röntgen, découvreur des rayons X et lauréat du tout premier prix Nobel de physique en 1901.
 La surface de la Terre est en permanence exposée à 
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%B6ntgen</t>
+          <t>Röntgen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,9 +533,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le röntgen est formellement défini par the American Roentgen Ray Society comme la quantité de radiation permettant de libérer 1 unité de charge électrique esu dans un centimètre cube d'air à 0°C et un atmosphère standard de pression[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le röntgen est formellement défini par the American Roentgen Ray Society comme la quantité de radiation permettant de libérer 1 unité de charge électrique esu dans un centimètre cube d'air à 0°C et un atmosphère standard de pression,.
 En unité SI, le röntgen équivaut à 
         2.58
         ×
@@ -613,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%B6ntgen</t>
+          <t>Röntgen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -631,10 +645,12 @@
           <t>Limites et remplacement du röntgen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le röntgen est limité car il ne permet pas de généraliser l'effet de radiations. Par exemple, 1 R peut correspondre à une dose absorbée de 0.00877 Gy par l'air sec ou bien 0.0096 Gy par un tissu biologique mou [3].
-Par ailleurs, il ne renseigne nullement sur l'intensité des radiations ni même la quantité de ces radiations qui sont absorbées par de la matière, vivante ou inerte. C'est pourquoi il a été petit à petit remplacé par des unités SI de doses absorbées comme le Gray (symbole Gy) ou encore le Sievert (symbole Sv) qui adapte la notion de dose absorbée à un corps humain[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le röntgen est limité car il ne permet pas de généraliser l'effet de radiations. Par exemple, 1 R peut correspondre à une dose absorbée de 0.00877 Gy par l'air sec ou bien 0.0096 Gy par un tissu biologique mou .
+Par ailleurs, il ne renseigne nullement sur l'intensité des radiations ni même la quantité de ces radiations qui sont absorbées par de la matière, vivante ou inerte. C'est pourquoi il a été petit à petit remplacé par des unités SI de doses absorbées comme le Gray (symbole Gy) ou encore le Sievert (symbole Sv) qui adapte la notion de dose absorbée à un corps humain.
 </t>
         </is>
       </c>
